--- a/pcb/PickAndPlace_BlueSmart_vedirect.xlsx
+++ b/pcb/PickAndPlace_BlueSmart_vedirect.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="PickAndPlace_PCB1_2023-09-22" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="PickAndPlace_PCB1_2023-09-23" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -115,6 +115,24 @@
     <t>7.075mm</t>
   </si>
   <si>
+    <t>VE.DIRECT1</t>
+  </si>
+  <si>
+    <t>HDGC2001WR-4P</t>
+  </si>
+  <si>
+    <t>CONN-TH_4P-P2.00_HDGC_HDGC2001WR-4P</t>
+  </si>
+  <si>
+    <t>6.731mm</t>
+  </si>
+  <si>
+    <t>5.382mm</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>BLUESMART1</t>
   </si>
   <si>
@@ -133,28 +151,10 @@
     <t>11.049mm</t>
   </si>
   <si>
-    <t>16.891mm</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>14.351mm</t>
   </si>
   <si>
     <t>A2541WV-2x3P</t>
-  </si>
-  <si>
-    <t>VE.DIRECT1</t>
-  </si>
-  <si>
-    <t>HDGC2001WR-4P</t>
-  </si>
-  <si>
-    <t>CONN-TH_4P-P2.00_HDGC_HDGC2001WR-4P</t>
-  </si>
-  <si>
-    <t>6.731mm</t>
-  </si>
-  <si>
-    <t>5.382mm</t>
   </si>
 </sst>
 </file>
@@ -727,81 +727,81 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
       <c r="J5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
       </c>
       <c r="L5">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
         <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
       </c>
       <c r="I6" t="s">
         <v>46</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-180</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
